--- a/商品图片库/products_import_template.xlsx
+++ b/商品图片库/products_import_template.xlsx
@@ -225,7 +225,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +245,6 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -707,158 +700,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1208,7 +1200,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1250,13 +1242,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1">
@@ -1268,7 +1260,7 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/商品图片库/products_import_template.xlsx
+++ b/商品图片库/products_import_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
   <si>
     <t>nameCN</t>
   </si>
@@ -197,13 +197,13 @@
     <t>Citronnelle brise.png</t>
   </si>
   <si>
-    <t>Oeil de rond poeuf</t>
+    <t>Oeil de rond boeuf</t>
   </si>
   <si>
     <t>Boucherie / 肉部</t>
   </si>
   <si>
-    <t>Oeil de rond poeuf.png</t>
+    <t>Oeil de rond boeuf.png</t>
   </si>
   <si>
     <t>Radis Blanc</t>
@@ -213,6 +213,114 @@
   </si>
   <si>
     <t>Radis Blanc.png</t>
+  </si>
+  <si>
+    <t>OS de boeuf</t>
+  </si>
+  <si>
+    <t>OS de boeuf.png</t>
+  </si>
+  <si>
+    <t>Jaret de boeuf</t>
+  </si>
+  <si>
+    <t>Jaret de boeuf.png</t>
+  </si>
+  <si>
+    <t>Concombre long</t>
+  </si>
+  <si>
+    <t>Concombre long.png</t>
+  </si>
+  <si>
+    <t>Laitue  avec feuille rouge</t>
+  </si>
+  <si>
+    <t>Laitue  avec feuille rouge.png</t>
+  </si>
+  <si>
+    <t>Laitue_chinoise</t>
+  </si>
+  <si>
+    <t>Laitue_chinoise.png</t>
+  </si>
+  <si>
+    <t>Green_oignon</t>
+  </si>
+  <si>
+    <t>Green_oignon.png</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>Mint.png</t>
+  </si>
+  <si>
+    <t>Coriander</t>
+  </si>
+  <si>
+    <t>Coriander.png</t>
+  </si>
+  <si>
+    <t>Ail pele</t>
+  </si>
+  <si>
+    <t>Ail pele.png</t>
+  </si>
+  <si>
+    <t>Piment thai rouge</t>
+  </si>
+  <si>
+    <t>Piment thai rouge.png</t>
+  </si>
+  <si>
+    <t>Jasmine tea</t>
+  </si>
+  <si>
+    <t>Jasmine tea.png</t>
+  </si>
+  <si>
+    <t>Sucre de roche jaune</t>
+  </si>
+  <si>
+    <t>Sucre de roche jaune.png</t>
+  </si>
+  <si>
+    <t>Champignons sec dos blanc</t>
+  </si>
+  <si>
+    <t>Champignons sec dos blanc.png</t>
+  </si>
+  <si>
+    <t>Viet Ngon Emballages en papier di riz</t>
+  </si>
+  <si>
+    <t>Viet Ngon Emballages en papier di riz.png</t>
+  </si>
+  <si>
+    <t>Granulated chicken flavour soup base mix</t>
+  </si>
+  <si>
+    <t>Granulated chicken flavour soup base mix.png</t>
+  </si>
+  <si>
+    <t>Viet huong fish sauce</t>
+  </si>
+  <si>
+    <t>Viet huong fish sauce.png</t>
+  </si>
+  <si>
+    <t>Sauce de poisson crab</t>
+  </si>
+  <si>
+    <t>Sauce de poisson crab.png</t>
+  </si>
+  <si>
+    <t>Gugen_Coconut_MilkOriginal</t>
+  </si>
+  <si>
+    <t>Gugen_Coconut_MilkOriginal.png</t>
   </si>
 </sst>
 </file>
@@ -845,11 +953,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1197,16 +1308,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="1" max="2" width="37.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="13.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
@@ -1252,10 +1362,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>6.99</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>209.7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -1814,6 +1924,420 @@
       </c>
       <c r="G26" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>29.99</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
